--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/TENNESSEE_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/TENNESSEE_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1388"/>
+  <dimension ref="A1:D1382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C79">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C80">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C87">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C99">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C101">
@@ -2193,7 +2193,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C139">
@@ -2232,7 +2232,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C142">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C154">
@@ -2414,7 +2414,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C156">
@@ -2440,7 +2440,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C161">
@@ -2679,7 +2679,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C190">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C203">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C215">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C219">
@@ -3357,12 +3357,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C236">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C241">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C244">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C250">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C257">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C258">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C269">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C275">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C277">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C278">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C286">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C294">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C300">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C304">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C315">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C316">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C324">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C328">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C335">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C340">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C342">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C344">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C345">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C346">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C347">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C352">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C362">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C365">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C366">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C369">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C372">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C374">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C378">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C381">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C382">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C390">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C392">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C395">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C400">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C410">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C413">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C415">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C419">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C421">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C426">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C433">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C437">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C443">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C446">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C450">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C453">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C460">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C463">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C465">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C467">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C469">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C476">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C480">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C483">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C484">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C492">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C495">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C500">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C501">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C504">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C508">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C515">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C517">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C520">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C523">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C526">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C530">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C534">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C537">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C540">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C541">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C548">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C552">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C556">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -7885,7 +7885,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C573">
@@ -8613,7 +8613,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C629">
@@ -8904,7 +8904,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C651">
@@ -9034,7 +9034,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C661">
@@ -9099,7 +9099,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C666">
@@ -9112,7 +9112,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C667">
@@ -9338,7 +9338,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C684">
@@ -9447,7 +9447,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C692">
@@ -9551,7 +9551,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C700">
@@ -9616,7 +9616,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C705">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C710">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C715">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C719">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C722">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C724">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C730">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C733">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C740">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C742">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C747">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C750">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C757">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C761">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C766">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C770">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C778">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C780">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C798">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C821">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C833">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C863">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C874">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C904">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C911">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C913">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C915">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C917">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C919">
@@ -12590,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C933">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C942">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C954">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C955">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C959">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C960">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C965">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C975">
@@ -13162,7 +13162,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C977">
@@ -13175,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C978">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C983">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C984">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C985">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C988">
@@ -13318,7 +13318,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C989">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C990">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C993">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1015">
@@ -13687,7 +13687,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1017">
@@ -13778,7 +13778,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1024">
@@ -13791,7 +13791,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1025">
@@ -13804,7 +13804,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1026">
@@ -13843,7 +13843,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1029">
@@ -14009,7 +14009,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1041">
@@ -14022,7 +14022,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1042">
@@ -14113,7 +14113,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1049">
@@ -14230,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1058">
@@ -14295,7 +14295,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1063">
@@ -14373,7 +14373,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1069">
@@ -14399,7 +14399,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1071">
@@ -14490,7 +14490,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1078">
@@ -14555,7 +14555,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1083">
@@ -14568,7 +14568,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1084">
@@ -14581,7 +14581,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1085">
@@ -14594,7 +14594,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1086">
@@ -14607,7 +14607,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1087">
@@ -14942,7 +14942,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1112">
@@ -15498,7 +15498,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1154">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1161">
@@ -15672,7 +15672,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1167">
@@ -15763,7 +15763,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1182">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1191">
@@ -16015,7 +16015,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1193">
@@ -16067,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1197">
@@ -16249,7 +16249,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1211">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1230">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1231">
@@ -16522,7 +16522,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1232">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1235">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1236">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1237">
@@ -16600,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1238">
@@ -16782,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1252">
@@ -16795,7 +16795,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1253">
@@ -16860,7 +16860,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1258">
@@ -16938,7 +16938,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1264">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1266">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1276">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1279">
@@ -17146,7 +17146,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1280">
@@ -17185,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1283">
@@ -17276,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1290">
@@ -17302,7 +17302,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1292">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1296">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1314">
@@ -17718,7 +17718,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1324">
@@ -17822,7 +17822,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1332">
@@ -18001,7 +18001,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1345">
@@ -18027,7 +18027,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1347">
@@ -18040,7 +18040,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1348">
@@ -18222,7 +18222,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1362">
@@ -18235,7 +18235,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1363">
@@ -18248,7 +18248,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1364">
@@ -18352,7 +18352,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1372">
@@ -18365,7 +18365,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1373">
@@ -18430,7 +18430,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1378">
@@ -18482,7 +18482,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1382">
@@ -18490,41 +18490,6 @@
       </c>
       <c r="D1382">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
